--- a/data/trans_orig/P21D4_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D4_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{165A3CFE-FF67-4645-84FD-6DDF792C93D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2A0453E-B5A6-4C4B-8406-56C563B97E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{839782C9-C886-4111-84A7-032D38567D0E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FBBE734F-7FF6-4ED3-8541-9D7E6B671CD1}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="228">
-  <si>
-    <t>Población que, necesitandolo, no pudo recibir atención médica mental (psicólogo) en 2023 (Tasa respuesta: 43,83%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="224">
+  <si>
+    <t>Población que, necesitándolo, no pudo recibir atención médica mental (psicólogo) en 2023 (Tasa respuesta: 43,83%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>96,01%</t>
   </si>
   <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
   </si>
   <si>
     <t>89,31%</t>
   </si>
   <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
   </si>
   <si>
     <t>92,98%</t>
   </si>
   <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
@@ -104,619 +104,607 @@
     <t>3,99%</t>
   </si>
   <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por otros motivos</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por motivos económicos</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
     <t>0,94%</t>
   </si>
   <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por otros motivos</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
   </si>
   <si>
     <t>3,78%</t>
   </si>
   <si>
-    <t>No lo pudo recibir por motivos económicos</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
   </si>
   <si>
     <t>0,59%</t>
   </si>
   <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
     <t>0,9%</t>
   </si>
   <si>
-    <t>1,33%</t>
-  </si>
-  <si>
     <t>0,23%</t>
   </si>
   <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1131,7 +1119,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F14537-53B4-4656-81B3-6ADCF5977AC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B1DE5F-FEFB-467F-ABD9-0844C0521919}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1614,13 +1602,13 @@
         <v>1942</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -1629,13 +1617,13 @@
         <v>160</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -1644,13 +1632,13 @@
         <v>2102</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1671,7 +1659,7 @@
         <v>32</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -1680,13 +1668,13 @@
         <v>2699</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -1695,13 +1683,13 @@
         <v>2699</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1757,7 +1745,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1769,13 +1757,13 @@
         <v>213488</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H14" s="7">
         <v>366</v>
@@ -1784,13 +1772,13 @@
         <v>258200</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M14" s="7">
         <v>580</v>
@@ -1799,13 +1787,13 @@
         <v>471687</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1820,13 +1808,13 @@
         <v>10287</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H15" s="7">
         <v>24</v>
@@ -1835,13 +1823,13 @@
         <v>16206</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M15" s="7">
         <v>32</v>
@@ -1850,13 +1838,13 @@
         <v>26494</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,7 +1865,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -1886,13 +1874,13 @@
         <v>159</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -1901,13 +1889,13 @@
         <v>159</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1928,7 +1916,7 @@
         <v>32</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -1937,13 +1925,13 @@
         <v>2788</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -1952,13 +1940,13 @@
         <v>2788</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2014,7 +2002,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2026,13 +2014,13 @@
         <v>270652</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H19" s="7">
         <v>486</v>
@@ -2041,13 +2029,13 @@
         <v>319837</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M19" s="7">
         <v>759</v>
@@ -2056,13 +2044,13 @@
         <v>590489</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2077,13 +2065,13 @@
         <v>71382</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H20" s="7">
         <v>31</v>
@@ -2092,13 +2080,13 @@
         <v>21314</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M20" s="7">
         <v>49</v>
@@ -2107,13 +2095,13 @@
         <v>92696</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2128,13 +2116,13 @@
         <v>4260</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -2143,13 +2131,13 @@
         <v>5610</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M21" s="7">
         <v>12</v>
@@ -2158,13 +2146,13 @@
         <v>9870</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2179,13 +2167,13 @@
         <v>1146</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -2194,13 +2182,13 @@
         <v>2176</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
@@ -2209,13 +2197,13 @@
         <v>3321</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2271,7 +2259,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2283,13 +2271,13 @@
         <v>231463</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H24" s="7">
         <v>359</v>
@@ -2298,13 +2286,13 @@
         <v>215121</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M24" s="7">
         <v>613</v>
@@ -2313,13 +2301,13 @@
         <v>446584</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2334,13 +2322,13 @@
         <v>17237</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>41</v>
@@ -2349,13 +2337,13 @@
         <v>25711</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>58</v>
@@ -2364,13 +2352,13 @@
         <v>42948</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2385,13 +2373,13 @@
         <v>5094</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -2400,13 +2388,13 @@
         <v>2893</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M26" s="7">
         <v>9</v>
@@ -2415,13 +2403,13 @@
         <v>7987</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2436,13 +2424,13 @@
         <v>1777</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H27" s="7">
         <v>6</v>
@@ -2451,13 +2439,13 @@
         <v>3674</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>8</v>
@@ -2466,10 +2454,10 @@
         <v>5450</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="Q27" s="7" t="s">
         <v>167</v>
@@ -2624,10 +2612,10 @@
         <v>183</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2642,13 +2630,13 @@
         <v>1528</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="H31" s="7">
         <v>7</v>
@@ -2660,7 +2648,7 @@
         <v>187</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>188</v>
@@ -2675,10 +2663,10 @@
         <v>189</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>63</v>
+        <v>190</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,13 +2681,13 @@
         <v>600</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>191</v>
+        <v>119</v>
       </c>
       <c r="H32" s="7">
         <v>6</v>
@@ -2708,13 +2696,13 @@
         <v>2846</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M32" s="7">
         <v>7</v>
@@ -2723,13 +2711,13 @@
         <v>3446</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="P32" s="7" t="s">
-        <v>196</v>
-      </c>
       <c r="Q32" s="7" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2797,13 +2785,13 @@
         <v>1373483</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H34" s="7">
         <v>2171</v>
@@ -2812,13 +2800,13 @@
         <v>1538361</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M34" s="7">
         <v>3548</v>
@@ -2827,13 +2815,13 @@
         <v>2911844</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2848,13 +2836,13 @@
         <v>128701</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H35" s="7">
         <v>158</v>
@@ -2863,13 +2851,13 @@
         <v>113918</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>210</v>
+        <v>85</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M35" s="7">
         <v>225</v>
@@ -2878,13 +2866,13 @@
         <v>242620</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2899,13 +2887,13 @@
         <v>12825</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>162</v>
+        <v>214</v>
       </c>
       <c r="H36" s="7">
         <v>22</v>
@@ -2914,13 +2902,13 @@
         <v>16073</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="M36" s="7">
         <v>34</v>
@@ -2929,13 +2917,13 @@
         <v>28897</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>220</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2950,13 +2938,13 @@
         <v>3522</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>163</v>
+        <v>220</v>
       </c>
       <c r="H37" s="7">
         <v>21</v>
@@ -2965,13 +2953,13 @@
         <v>14182</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M37" s="7">
         <v>25</v>
@@ -2980,13 +2968,13 @@
         <v>17704</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>224</v>
+        <v>165</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3042,7 +3030,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D4_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D4_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2A0453E-B5A6-4C4B-8406-56C563B97E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B37BC4C-F5AA-4827-8574-CDCD8736C77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FBBE734F-7FF6-4ED3-8541-9D7E6B671CD1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0B4DC492-4537-4AD8-B97F-931AC1B1151F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1119,7 +1119,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B1DE5F-FEFB-467F-ABD9-0844C0521919}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23854050-E669-4374-8644-B33B0596426C}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P21D4_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D4_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B37BC4C-F5AA-4827-8574-CDCD8736C77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E90C3EFA-B35C-4168-9140-583AE62AC40B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0B4DC492-4537-4AD8-B97F-931AC1B1151F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4DB370CC-5951-46B1-8122-CFF044E5E97B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="228">
   <si>
     <t>Población que, necesitándolo, no pudo recibir atención médica mental (psicólogo) en 2023 (Tasa respuesta: 43,83%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>96,01%</t>
   </si>
   <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
   </si>
   <si>
     <t>89,31%</t>
   </si>
   <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
   </si>
   <si>
     <t>92,98%</t>
   </si>
   <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
@@ -104,28 +104,28 @@
     <t>3,99%</t>
   </si>
   <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
   </si>
   <si>
     <t>8,99%</t>
   </si>
   <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
   </si>
   <si>
     <t>6,25%</t>
   </si>
   <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
   </si>
   <si>
     <t>No lo pudo recibir por otros motivos</t>
@@ -143,13 +143,13 @@
     <t>1,7%</t>
   </si>
   <si>
-    <t>8,69%</t>
+    <t>8,33%</t>
   </si>
   <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>4,5%</t>
+    <t>3,78%</t>
   </si>
   <si>
     <t>No lo pudo recibir por motivos económicos</t>
@@ -170,541 +170,553 @@
     <t>92,57%</t>
   </si>
   <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
   </si>
   <si>
     <t>94,65%</t>
   </si>
   <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
     <t>90,96%</t>
   </si>
   <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
   </si>
   <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
+    <t>0,85%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1119,7 +1131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23854050-E669-4374-8644-B33B0596426C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3D4EE4-0515-4417-82D7-FA887661CAC6}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1602,13 +1614,13 @@
         <v>1942</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -1617,13 +1629,13 @@
         <v>160</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -1632,13 +1644,13 @@
         <v>2102</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1659,7 +1671,7 @@
         <v>32</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -1668,13 +1680,13 @@
         <v>2699</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -1683,13 +1695,13 @@
         <v>2699</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1745,7 +1757,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1757,13 +1769,13 @@
         <v>213488</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H14" s="7">
         <v>366</v>
@@ -1772,13 +1784,13 @@
         <v>258200</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M14" s="7">
         <v>580</v>
@@ -1787,13 +1799,13 @@
         <v>471687</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1808,13 +1820,13 @@
         <v>10287</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H15" s="7">
         <v>24</v>
@@ -1823,13 +1835,13 @@
         <v>16206</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M15" s="7">
         <v>32</v>
@@ -1838,13 +1850,13 @@
         <v>26494</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1865,7 +1877,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -1874,13 +1886,13 @@
         <v>159</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -1889,13 +1901,13 @@
         <v>159</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1916,7 +1928,7 @@
         <v>32</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -1925,13 +1937,13 @@
         <v>2788</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -1940,13 +1952,13 @@
         <v>2788</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2002,7 +2014,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2014,13 +2026,13 @@
         <v>270652</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H19" s="7">
         <v>486</v>
@@ -2029,13 +2041,13 @@
         <v>319837</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M19" s="7">
         <v>759</v>
@@ -2044,13 +2056,13 @@
         <v>590489</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2065,13 +2077,13 @@
         <v>71382</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H20" s="7">
         <v>31</v>
@@ -2080,13 +2092,13 @@
         <v>21314</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M20" s="7">
         <v>49</v>
@@ -2095,13 +2107,13 @@
         <v>92696</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2116,13 +2128,13 @@
         <v>4260</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -2131,13 +2143,13 @@
         <v>5610</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M21" s="7">
         <v>12</v>
@@ -2146,13 +2158,13 @@
         <v>9870</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2167,13 +2179,13 @@
         <v>1146</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -2182,13 +2194,13 @@
         <v>2176</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
@@ -2197,13 +2209,13 @@
         <v>3321</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2259,7 +2271,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2271,13 +2283,13 @@
         <v>231463</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H24" s="7">
         <v>359</v>
@@ -2286,13 +2298,13 @@
         <v>215121</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M24" s="7">
         <v>613</v>
@@ -2301,13 +2313,13 @@
         <v>446584</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2322,13 +2334,13 @@
         <v>17237</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H25" s="7">
         <v>41</v>
@@ -2337,13 +2349,13 @@
         <v>25711</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M25" s="7">
         <v>58</v>
@@ -2352,13 +2364,13 @@
         <v>42948</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2373,13 +2385,13 @@
         <v>5094</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -2388,13 +2400,13 @@
         <v>2893</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M26" s="7">
         <v>9</v>
@@ -2403,13 +2415,13 @@
         <v>7987</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2424,13 +2436,13 @@
         <v>1777</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H27" s="7">
         <v>6</v>
@@ -2439,13 +2451,13 @@
         <v>3674</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>8</v>
@@ -2454,10 +2466,10 @@
         <v>5450</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="Q27" s="7" t="s">
         <v>167</v>
@@ -2612,10 +2624,10 @@
         <v>183</v>
       </c>
       <c r="P30" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2630,13 +2642,13 @@
         <v>1528</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="H31" s="7">
         <v>7</v>
@@ -2648,7 +2660,7 @@
         <v>187</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>188</v>
@@ -2663,10 +2675,10 @@
         <v>189</v>
       </c>
       <c r="P31" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,13 +2693,13 @@
         <v>600</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>119</v>
+        <v>191</v>
       </c>
       <c r="H32" s="7">
         <v>6</v>
@@ -2696,13 +2708,13 @@
         <v>2846</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>126</v>
+        <v>192</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M32" s="7">
         <v>7</v>
@@ -2711,13 +2723,13 @@
         <v>3446</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2785,13 +2797,13 @@
         <v>1373483</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H34" s="7">
         <v>2171</v>
@@ -2800,13 +2812,13 @@
         <v>1538361</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M34" s="7">
         <v>3548</v>
@@ -2815,13 +2827,13 @@
         <v>2911844</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>47</v>
+        <v>203</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2836,13 +2848,13 @@
         <v>128701</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H35" s="7">
         <v>158</v>
@@ -2851,13 +2863,13 @@
         <v>113918</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>85</v>
+        <v>210</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M35" s="7">
         <v>225</v>
@@ -2866,13 +2878,13 @@
         <v>242620</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2887,13 +2899,13 @@
         <v>12825</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>214</v>
+        <v>162</v>
       </c>
       <c r="H36" s="7">
         <v>22</v>
@@ -2902,13 +2914,13 @@
         <v>16073</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>179</v>
+        <v>218</v>
       </c>
       <c r="M36" s="7">
         <v>34</v>
@@ -2917,13 +2929,13 @@
         <v>28897</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>67</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2938,13 +2950,13 @@
         <v>3522</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
       <c r="H37" s="7">
         <v>21</v>
@@ -2953,13 +2965,13 @@
         <v>14182</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M37" s="7">
         <v>25</v>
@@ -2968,13 +2980,13 @@
         <v>17704</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>165</v>
+        <v>224</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3030,7 +3042,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D4_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D4_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E90C3EFA-B35C-4168-9140-583AE62AC40B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3485EB0-B8A5-43AA-9399-AEF05489F2EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4DB370CC-5951-46B1-8122-CFF044E5E97B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{877D1FD8-F14E-4960-BC8F-6AD9EE908B98}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="246">
   <si>
     <t>Población que, necesitándolo, no pudo recibir atención médica mental (psicólogo) en 2023 (Tasa respuesta: 43,83%)</t>
   </si>
@@ -65,67 +65,67 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>No lo ha necesitado</t>
   </si>
   <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
   </si>
   <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
   </si>
   <si>
     <t>No lo pudo recibir por otros motivos</t>
@@ -140,583 +140,637 @@
     <t>2,23%</t>
   </si>
   <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por motivos económicos</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
   </si>
   <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por motivos económicos</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
   </si>
   <si>
     <t>96,66%</t>
   </si>
   <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
   </si>
   <si>
     <t>0,33%</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
   </si>
   <si>
     <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1131,8 +1185,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3D4EE4-0515-4417-82D7-FA887661CAC6}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046EDEDF-B80A-4438-9702-E103B9520EAF}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1252,7 +1306,7 @@
         <v>82</v>
       </c>
       <c r="D4" s="7">
-        <v>184131</v>
+        <v>195850</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1267,7 +1321,7 @@
         <v>85</v>
       </c>
       <c r="I4" s="7">
-        <v>141699</v>
+        <v>125846</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1282,7 +1336,7 @@
         <v>167</v>
       </c>
       <c r="N4" s="7">
-        <v>325831</v>
+        <v>321695</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1303,7 +1357,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>7644</v>
+        <v>8099</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1318,7 +1372,7 @@
         <v>7</v>
       </c>
       <c r="I5" s="7">
-        <v>14260</v>
+        <v>11812</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1333,7 +1387,7 @@
         <v>10</v>
       </c>
       <c r="N5" s="7">
-        <v>21905</v>
+        <v>19911</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1369,7 +1423,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>2694</v>
+        <v>2688</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1384,7 +1438,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>2694</v>
+        <v>2688</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>36</v>
@@ -1456,7 +1510,7 @@
         <v>85</v>
       </c>
       <c r="D8" s="7">
-        <v>191775</v>
+        <v>203949</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1471,7 +1525,7 @@
         <v>93</v>
       </c>
       <c r="I8" s="7">
-        <v>158654</v>
+        <v>140346</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>41</v>
@@ -1486,7 +1540,7 @@
         <v>178</v>
       </c>
       <c r="N8" s="7">
-        <v>350430</v>
+        <v>344294</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>41</v>
@@ -1509,7 +1563,7 @@
         <v>136</v>
       </c>
       <c r="D9" s="7">
-        <v>191170</v>
+        <v>189403</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>43</v>
@@ -1524,7 +1578,7 @@
         <v>215</v>
       </c>
       <c r="I9" s="7">
-        <v>243090</v>
+        <v>278379</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>46</v>
@@ -1539,7 +1593,7 @@
         <v>351</v>
       </c>
       <c r="N9" s="7">
-        <v>434260</v>
+        <v>467782</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>49</v>
@@ -1560,7 +1614,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>13405</v>
+        <v>13697</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>52</v>
@@ -1575,7 +1629,7 @@
         <v>10</v>
       </c>
       <c r="I10" s="7">
-        <v>10880</v>
+        <v>10080</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>55</v>
@@ -1590,7 +1644,7 @@
         <v>18</v>
       </c>
       <c r="N10" s="7">
-        <v>24286</v>
+        <v>23777</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>58</v>
@@ -1611,22 +1665,22 @@
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>1942</v>
+        <v>1621</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>62</v>
@@ -1641,7 +1695,7 @@
         <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>2102</v>
+        <v>1783</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>64</v>
@@ -1677,7 +1731,7 @@
         <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>2699</v>
+        <v>2498</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>67</v>
@@ -1686,22 +1740,22 @@
         <v>31</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
       </c>
       <c r="N12" s="7">
-        <v>2699</v>
+        <v>2498</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1713,7 +1767,7 @@
         <v>145</v>
       </c>
       <c r="D13" s="7">
-        <v>206518</v>
+        <v>204722</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>41</v>
@@ -1728,7 +1782,7 @@
         <v>228</v>
       </c>
       <c r="I13" s="7">
-        <v>256829</v>
+        <v>291119</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>41</v>
@@ -1743,7 +1797,7 @@
         <v>373</v>
       </c>
       <c r="N13" s="7">
-        <v>463347</v>
+        <v>495841</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>41</v>
@@ -1757,7 +1811,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1766,46 +1820,46 @@
         <v>214</v>
       </c>
       <c r="D14" s="7">
-        <v>213488</v>
+        <v>205628</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7">
         <v>366</v>
       </c>
       <c r="I14" s="7">
-        <v>258200</v>
+        <v>239671</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M14" s="7">
         <v>580</v>
       </c>
       <c r="N14" s="7">
-        <v>471687</v>
+        <v>445299</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1817,46 +1871,46 @@
         <v>8</v>
       </c>
       <c r="D15" s="7">
-        <v>10287</v>
+        <v>9858</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H15" s="7">
         <v>24</v>
       </c>
       <c r="I15" s="7">
-        <v>16206</v>
+        <v>15326</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M15" s="7">
         <v>32</v>
       </c>
       <c r="N15" s="7">
-        <v>26494</v>
+        <v>25184</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,13 +1931,13 @@
         <v>32</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>62</v>
@@ -1898,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>91</v>
@@ -1928,13 +1982,13 @@
         <v>32</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>2788</v>
+        <v>2530</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>93</v>
@@ -1949,16 +2003,16 @@
         <v>4</v>
       </c>
       <c r="N17" s="7">
-        <v>2788</v>
+        <v>2530</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>96</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1970,7 +2024,7 @@
         <v>222</v>
       </c>
       <c r="D18" s="7">
-        <v>223775</v>
+        <v>215486</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>41</v>
@@ -1985,7 +2039,7 @@
         <v>395</v>
       </c>
       <c r="I18" s="7">
-        <v>277353</v>
+        <v>257689</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>41</v>
@@ -2000,7 +2054,7 @@
         <v>617</v>
       </c>
       <c r="N18" s="7">
-        <v>501128</v>
+        <v>473175</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>41</v>
@@ -2014,7 +2068,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2023,46 +2077,46 @@
         <v>273</v>
       </c>
       <c r="D19" s="7">
-        <v>270652</v>
+        <v>258049</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H19" s="7">
         <v>486</v>
       </c>
       <c r="I19" s="7">
-        <v>319837</v>
+        <v>294073</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M19" s="7">
         <v>759</v>
       </c>
       <c r="N19" s="7">
-        <v>590489</v>
+        <v>552121</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2074,37 +2128,37 @@
         <v>18</v>
       </c>
       <c r="D20" s="7">
-        <v>71382</v>
+        <v>263357</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H20" s="7">
         <v>31</v>
       </c>
       <c r="I20" s="7">
-        <v>21314</v>
+        <v>19599</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="M20" s="7">
         <v>49</v>
       </c>
       <c r="N20" s="7">
-        <v>92696</v>
+        <v>282956</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>114</v>
@@ -2125,13 +2179,13 @@
         <v>4</v>
       </c>
       <c r="D21" s="7">
-        <v>4260</v>
+        <v>4038</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>117</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>118</v>
@@ -2140,31 +2194,31 @@
         <v>8</v>
       </c>
       <c r="I21" s="7">
-        <v>5610</v>
+        <v>5162</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>119</v>
       </c>
       <c r="K21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M21" s="7">
         <v>12</v>
       </c>
       <c r="N21" s="7">
-        <v>9870</v>
+        <v>9200</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2176,46 +2230,46 @@
         <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>1146</v>
+        <v>1114</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
       </c>
       <c r="I22" s="7">
-        <v>2176</v>
+        <v>2028</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
       </c>
       <c r="N22" s="7">
-        <v>3321</v>
+        <v>3142</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>131</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2227,7 +2281,7 @@
         <v>296</v>
       </c>
       <c r="D23" s="7">
-        <v>347440</v>
+        <v>526558</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>41</v>
@@ -2242,7 +2296,7 @@
         <v>528</v>
       </c>
       <c r="I23" s="7">
-        <v>348936</v>
+        <v>320862</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>41</v>
@@ -2257,7 +2311,7 @@
         <v>824</v>
       </c>
       <c r="N23" s="7">
-        <v>696376</v>
+        <v>847419</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>41</v>
@@ -2271,7 +2325,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2280,46 +2334,46 @@
         <v>254</v>
       </c>
       <c r="D24" s="7">
-        <v>231463</v>
+        <v>216158</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H24" s="7">
         <v>359</v>
       </c>
       <c r="I24" s="7">
-        <v>215121</v>
+        <v>197241</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M24" s="7">
         <v>613</v>
       </c>
       <c r="N24" s="7">
-        <v>446584</v>
+        <v>413399</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2331,46 +2385,46 @@
         <v>17</v>
       </c>
       <c r="D25" s="7">
-        <v>17237</v>
+        <v>15883</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>41</v>
+      </c>
+      <c r="I25" s="7">
+        <v>23374</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="K25" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="H25" s="7">
-        <v>41</v>
-      </c>
-      <c r="I25" s="7">
-        <v>25711</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M25" s="7">
         <v>58</v>
       </c>
       <c r="N25" s="7">
-        <v>42948</v>
+        <v>39257</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2382,46 +2436,46 @@
         <v>5</v>
       </c>
       <c r="D26" s="7">
-        <v>5094</v>
+        <v>4766</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
       </c>
       <c r="I26" s="7">
-        <v>2893</v>
+        <v>2687</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M26" s="7">
         <v>9</v>
       </c>
       <c r="N26" s="7">
-        <v>7987</v>
+        <v>7453</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2433,46 +2487,46 @@
         <v>2</v>
       </c>
       <c r="D27" s="7">
-        <v>1777</v>
+        <v>1697</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H27" s="7">
         <v>6</v>
       </c>
       <c r="I27" s="7">
-        <v>3674</v>
+        <v>3390</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M27" s="7">
         <v>8</v>
       </c>
       <c r="N27" s="7">
-        <v>5450</v>
+        <v>5087</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2484,7 +2538,7 @@
         <v>278</v>
       </c>
       <c r="D28" s="7">
-        <v>255571</v>
+        <v>238504</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>41</v>
@@ -2499,7 +2553,7 @@
         <v>410</v>
       </c>
       <c r="I28" s="7">
-        <v>247399</v>
+        <v>226692</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>41</v>
@@ -2514,7 +2568,7 @@
         <v>688</v>
       </c>
       <c r="N28" s="7">
-        <v>502970</v>
+        <v>465196</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>41</v>
@@ -2528,55 +2582,55 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>418</v>
+        <v>234</v>
       </c>
       <c r="D29" s="7">
-        <v>282579</v>
+        <v>150686</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H29" s="7">
+        <v>336</v>
+      </c>
+      <c r="I29" s="7">
+        <v>165920</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>570</v>
+      </c>
+      <c r="N29" s="7">
+        <v>316606</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="P29" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="H29" s="7">
-        <v>660</v>
-      </c>
-      <c r="I29" s="7">
-        <v>360414</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="M29" s="7">
-        <v>1078</v>
-      </c>
-      <c r="N29" s="7">
-        <v>642993</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2585,49 +2639,49 @@
         <v>20</v>
       </c>
       <c r="C30" s="7">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D30" s="7">
-        <v>8745</v>
+        <v>4791</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H30" s="7">
+        <v>30</v>
+      </c>
+      <c r="I30" s="7">
+        <v>15576</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="M30" s="7">
+        <v>37</v>
+      </c>
+      <c r="N30" s="7">
+        <v>20367</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="H30" s="7">
-        <v>45</v>
-      </c>
-      <c r="I30" s="7">
-        <v>25547</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="M30" s="7">
-        <v>58</v>
-      </c>
-      <c r="N30" s="7">
-        <v>34291</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,49 +2690,49 @@
         <v>30</v>
       </c>
       <c r="C31" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>1528</v>
+        <v>877</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H31" s="7">
+        <v>2</v>
+      </c>
+      <c r="I31" s="7">
+        <v>1161</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="M31" s="7">
+        <v>3</v>
+      </c>
+      <c r="N31" s="7">
+        <v>2038</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="H31" s="7">
-        <v>7</v>
-      </c>
-      <c r="I31" s="7">
-        <v>4556</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="M31" s="7">
-        <v>9</v>
-      </c>
-      <c r="N31" s="7">
-        <v>6084</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,49 +2741,49 @@
         <v>38</v>
       </c>
       <c r="C32" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" s="7">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>191</v>
+        <v>61</v>
       </c>
       <c r="H32" s="7">
         <v>6</v>
       </c>
       <c r="I32" s="7">
-        <v>2846</v>
+        <v>2620</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="M32" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N32" s="7">
-        <v>3446</v>
+        <v>2620</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>195</v>
+        <v>117</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2738,10 +2792,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>434</v>
+        <v>242</v>
       </c>
       <c r="D33" s="7">
-        <v>293451</v>
+        <v>156354</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>41</v>
@@ -2753,10 +2807,10 @@
         <v>41</v>
       </c>
       <c r="H33" s="7">
-        <v>718</v>
+        <v>374</v>
       </c>
       <c r="I33" s="7">
-        <v>393363</v>
+        <v>185277</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>41</v>
@@ -2768,10 +2822,10 @@
         <v>41</v>
       </c>
       <c r="M33" s="7">
-        <v>1152</v>
+        <v>616</v>
       </c>
       <c r="N33" s="7">
-        <v>686814</v>
+        <v>341631</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>41</v>
@@ -2785,55 +2839,55 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>192</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>1377</v>
+        <v>184</v>
       </c>
       <c r="D34" s="7">
-        <v>1373483</v>
+        <v>113707</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H34" s="7">
+        <v>324</v>
+      </c>
+      <c r="I34" s="7">
+        <v>159808</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>508</v>
+      </c>
+      <c r="N34" s="7">
+        <v>273517</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="H34" s="7">
-        <v>2171</v>
-      </c>
-      <c r="I34" s="7">
-        <v>1538361</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="P34" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="M34" s="7">
-        <v>3548</v>
-      </c>
-      <c r="N34" s="7">
-        <v>2911844</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2842,49 +2896,49 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="D35" s="7">
-        <v>128701</v>
+        <v>3405</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H35" s="7">
+        <v>15</v>
+      </c>
+      <c r="I35" s="7">
+        <v>7404</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="M35" s="7">
+        <v>21</v>
+      </c>
+      <c r="N35" s="7">
+        <v>10809</v>
+      </c>
+      <c r="O35" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="P35" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="H35" s="7">
-        <v>158</v>
-      </c>
-      <c r="I35" s="7">
-        <v>113918</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="M35" s="7">
-        <v>225</v>
-      </c>
-      <c r="N35" s="7">
-        <v>242620</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2893,49 +2947,49 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D36" s="7">
-        <v>12825</v>
+        <v>524</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>216</v>
+        <v>31</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>162</v>
+        <v>210</v>
       </c>
       <c r="H36" s="7">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="I36" s="7">
-        <v>16073</v>
+        <v>2836</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="M36" s="7">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="N36" s="7">
-        <v>28897</v>
+        <v>3360</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>219</v>
+        <v>125</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>127</v>
+        <v>63</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2944,49 +2998,49 @@
         <v>38</v>
       </c>
       <c r="C37" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D37" s="7">
-        <v>3522</v>
+        <v>570</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>222</v>
+        <v>31</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>163</v>
+        <v>215</v>
       </c>
       <c r="H37" s="7">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I37" s="7">
-        <v>14182</v>
+        <v>0</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>215</v>
+        <v>31</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>195</v>
+        <v>32</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="M37" s="7">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="N37" s="7">
-        <v>17704</v>
+        <v>570</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>224</v>
+        <v>127</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>225</v>
+        <v>31</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2995,63 +3049,321 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>192</v>
+      </c>
+      <c r="D38" s="7">
+        <v>118206</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H38" s="7">
+        <v>344</v>
+      </c>
+      <c r="I38" s="7">
+        <v>170049</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M38" s="7">
+        <v>536</v>
+      </c>
+      <c r="N38" s="7">
+        <v>288256</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1377</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1329482</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H39" s="7">
+        <v>2171</v>
+      </c>
+      <c r="I39" s="7">
+        <v>1460937</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="M39" s="7">
+        <v>3548</v>
+      </c>
+      <c r="N39" s="7">
+        <v>2790419</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="7">
+        <v>67</v>
+      </c>
+      <c r="D40" s="7">
+        <v>319090</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H40" s="7">
+        <v>158</v>
+      </c>
+      <c r="I40" s="7">
+        <v>103172</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="M40" s="7">
+        <v>225</v>
+      </c>
+      <c r="N40" s="7">
+        <v>422262</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="7">
+        <v>12</v>
+      </c>
+      <c r="D41" s="7">
+        <v>11825</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H41" s="7">
+        <v>22</v>
+      </c>
+      <c r="I41" s="7">
+        <v>14859</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="M41" s="7">
+        <v>34</v>
+      </c>
+      <c r="N41" s="7">
+        <v>26684</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="7">
+        <v>4</v>
+      </c>
+      <c r="D42" s="7">
+        <v>3381</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H42" s="7">
+        <v>21</v>
+      </c>
+      <c r="I42" s="7">
+        <v>13066</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M42" s="7">
+        <v>25</v>
+      </c>
+      <c r="N42" s="7">
+        <v>16447</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>1460</v>
       </c>
-      <c r="D38" s="7">
-        <v>1518531</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="D43" s="7">
+        <v>1663778</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H43" s="7">
         <v>2372</v>
       </c>
-      <c r="I38" s="7">
-        <v>1682534</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="I43" s="7">
+        <v>1592034</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M43" s="7">
         <v>3832</v>
       </c>
-      <c r="N38" s="7">
-        <v>3201065</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>227</v>
+      <c r="N43" s="7">
+        <v>3255812</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
